--- a/data/hotels_by_city/Dallas/Dallas_shard_670.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_670.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,320 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r498341485-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>55588</t>
+  </si>
+  <si>
+    <t>534712</t>
+  </si>
+  <si>
+    <t>498341485</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Stayed at Rodeway Inn in Carrollton. The staff was professional and helpful, room clean &amp; comfortable. The ladies were especially friendly. I enjoyed the breakfast with the hot waffles. would definitely stay again.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r497185409-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>497185409</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Best Hostel I`ve stayed in</t>
+  </si>
+  <si>
+    <t>My experience at this hotel has always been great. Location couldn't have been better if you've already done the usual tourist things. Staff was helpful and the place was nice. Super clean too. Thank you again!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r482229055-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>482229055</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Awful Place with Awful Service</t>
+  </si>
+  <si>
+    <t>Spoke with a gentleman whose name I believe to be JD and he claimed to be the night manager. He was doing what is known as his obscure definition of helping check in a guest. I called up to discuss issues with my aunt's reservation I made and he agreed there was an issue. I reserved a double queen bedroom and was given a single king with no notification of change. When asked what he could do to accomodate, the clown said he could not. He could not get over the fact that the mistake was made on their end and they should be held responsible. I asked for a rollaway to be comped in place for the confusion and he refused. 0 out of 10 for this monkey's customer service skills. An infant could run a hotel with better customer service. When you make a mistake that ruins one's hotel stay, it defeats the purpose of offering to provide a reservation there. How do you suggest 3 people sleep on 1 bed? Take a look at the receipt attached below proving my point. In other instances, I know of places where hotels go out of their way to make sure the guest is happy or at least moderately satisfied. This proved to be a failed attempt at simple customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Spoke with a gentleman whose name I believe to be JD and he claimed to be the night manager. He was doing what is known as his obscure definition of helping check in a guest. I called up to discuss issues with my aunt's reservation I made and he agreed there was an issue. I reserved a double queen bedroom and was given a single king with no notification of change. When asked what he could do to accomodate, the clown said he could not. He could not get over the fact that the mistake was made on their end and they should be held responsible. I asked for a rollaway to be comped in place for the confusion and he refused. 0 out of 10 for this monkey's customer service skills. An infant could run a hotel with better customer service. When you make a mistake that ruins one's hotel stay, it defeats the purpose of offering to provide a reservation there. How do you suggest 3 people sleep on 1 bed? Take a look at the receipt attached below proving my point. In other instances, I know of places where hotels go out of their way to make sure the guest is happy or at least moderately satisfied. This proved to be a failed attempt at simple customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r390208707-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>390208707</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>Arrived at night and there was a group of what looked like homeless people gathered outside. It was a cheap hotel so I didn't worry too much about it. The facility was relatively clean looking, but upon entering the room, my two year old found one half of a discarded pill capsule on the floor. The drain in the tub was slow to empty and the A/C unit couldn't be set to HI COOL. My room was on a southern facing wall in July and LO COOL wasn't cutting it.On the plus side, the other guests were nice as was the staff. The breakfast consisted of waffles and muffins with orange juice or milk to drink.I wouldn't recommend for families with small children and I doubt I'll be returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Arrived at night and there was a group of what looked like homeless people gathered outside. It was a cheap hotel so I didn't worry too much about it. The facility was relatively clean looking, but upon entering the room, my two year old found one half of a discarded pill capsule on the floor. The drain in the tub was slow to empty and the A/C unit couldn't be set to HI COOL. My room was on a southern facing wall in July and LO COOL wasn't cutting it.On the plus side, the other guests were nice as was the staff. The breakfast consisted of waffles and muffins with orange juice or milk to drink.I wouldn't recommend for families with small children and I doubt I'll be returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r383002268-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>383002268</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Where do I begin?</t>
+  </si>
+  <si>
+    <t>The positive:  The man working the night shift is the friendliest and best guy, ever!  Having said that...
+The mildly annoying:  Vending machines don't work.  Barely any lighted parking.  Unsafe night entry area.  Disappointing breakfast.  Loud bathroom fan.  Non-smoking room was stinky had obviously held smoker guests, in the past. (The room number plaque had a smoking sign that was crossed out in paint pen...)  Maid continually left the heater on in JUNE.  Recent paint and drywall work was shoddy and the room still had drywall dust everywhere.
+The utterly disgusting:  See photos.  When I first arrived, the bathroom counter had hair on it.  Lots of it.  It seemed that someone had cleaned out their hairbrush and left the collection on the countertop.  Also, it looks like maybe someone trimmed their bangs, as well?  Immediately went to tell the really great guy, downstairs, and he offered to change my room - then realized that he couldn't because there weren't any more available.  I should've left right then and there, but I didn't.  Being that it was really late, I told him that I would deal with it and wipe off the counter with a washcloth if he would just have a conversation with the maid.  Stayed two nights.  On the third, after having a fun conversation with the gentleman (LJ, maybe?  His name was initials) I went into my room and - within 30 seconds - saw THREE roaches.  THREE!!!...The positive:  The man working the night shift is the friendliest and best guy, ever!  Having said that...The mildly annoying:  Vending machines don't work.  Barely any lighted parking.  Unsafe night entry area.  Disappointing breakfast.  Loud bathroom fan.  Non-smoking room was stinky had obviously held smoker guests, in the past. (The room number plaque had a smoking sign that was crossed out in paint pen...)  Maid continually left the heater on in JUNE.  Recent paint and drywall work was shoddy and the room still had drywall dust everywhere.The utterly disgusting:  See photos.  When I first arrived, the bathroom counter had hair on it.  Lots of it.  It seemed that someone had cleaned out their hairbrush and left the collection on the countertop.  Also, it looks like maybe someone trimmed their bangs, as well?  Immediately went to tell the really great guy, downstairs, and he offered to change my room - then realized that he couldn't because there weren't any more available.  I should've left right then and there, but I didn't.  Being that it was really late, I told him that I would deal with it and wipe off the counter with a washcloth if he would just have a conversation with the maid.  Stayed two nights.  On the third, after having a fun conversation with the gentleman (LJ, maybe?  His name was initials) I went into my room and - within 30 seconds - saw THREE roaches.  THREE!!! One on the ground by the door, one in the bathroom, and one climbing the wall! I packed, called to reserve a new room, elsewhere, and was checked out in 10 minutes.  Again, the night desk man was sincerely apologetic and sympathetic to the situation, but enough is enough.  I am now safely, cleanly, and securely writing this review from the Courtyard Marriott who has earned my business for life.DO NOT STAY HERE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>The positive:  The man working the night shift is the friendliest and best guy, ever!  Having said that...
+The mildly annoying:  Vending machines don't work.  Barely any lighted parking.  Unsafe night entry area.  Disappointing breakfast.  Loud bathroom fan.  Non-smoking room was stinky had obviously held smoker guests, in the past. (The room number plaque had a smoking sign that was crossed out in paint pen...)  Maid continually left the heater on in JUNE.  Recent paint and drywall work was shoddy and the room still had drywall dust everywhere.
+The utterly disgusting:  See photos.  When I first arrived, the bathroom counter had hair on it.  Lots of it.  It seemed that someone had cleaned out their hairbrush and left the collection on the countertop.  Also, it looks like maybe someone trimmed their bangs, as well?  Immediately went to tell the really great guy, downstairs, and he offered to change my room - then realized that he couldn't because there weren't any more available.  I should've left right then and there, but I didn't.  Being that it was really late, I told him that I would deal with it and wipe off the counter with a washcloth if he would just have a conversation with the maid.  Stayed two nights.  On the third, after having a fun conversation with the gentleman (LJ, maybe?  His name was initials) I went into my room and - within 30 seconds - saw THREE roaches.  THREE!!!...The positive:  The man working the night shift is the friendliest and best guy, ever!  Having said that...The mildly annoying:  Vending machines don't work.  Barely any lighted parking.  Unsafe night entry area.  Disappointing breakfast.  Loud bathroom fan.  Non-smoking room was stinky had obviously held smoker guests, in the past. (The room number plaque had a smoking sign that was crossed out in paint pen...)  Maid continually left the heater on in JUNE.  Recent paint and drywall work was shoddy and the room still had drywall dust everywhere.The utterly disgusting:  See photos.  When I first arrived, the bathroom counter had hair on it.  Lots of it.  It seemed that someone had cleaned out their hairbrush and left the collection on the countertop.  Also, it looks like maybe someone trimmed their bangs, as well?  Immediately went to tell the really great guy, downstairs, and he offered to change my room - then realized that he couldn't because there weren't any more available.  I should've left right then and there, but I didn't.  Being that it was really late, I told him that I would deal with it and wipe off the counter with a washcloth if he would just have a conversation with the maid.  Stayed two nights.  On the third, after having a fun conversation with the gentleman (LJ, maybe?  His name was initials) I went into my room and - within 30 seconds - saw THREE roaches.  THREE!!! One on the ground by the door, one in the bathroom, and one climbing the wall! I packed, called to reserve a new room, elsewhere, and was checked out in 10 minutes.  Again, the night desk man was sincerely apologetic and sympathetic to the situation, but enough is enough.  I am now safely, cleanly, and securely writing this review from the Courtyard Marriott who has earned my business for life.DO NOT STAY HERE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r354614894-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>354614894</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Prices don't match the quality.</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel in Feb 2016, The hotel is way too expensive, and the quality of the hotel and the room is not even close to the rate they charge. Everything is tiny, the room, the toilet and the bed isn't that comfortable. I ain't coming back to this Hotel. They Should reduce their prices to $35-$40 a night.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r258998539-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>258998539</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Don't plan on checking in late.</t>
+  </si>
+  <si>
+    <t>My friend and I reserved a room the morning of our trip to Texas and were going to check in after the concert we were going to see was over. When we got out of the concert at about 10:40, it was sleeting and icing terribly. We were in a rush to get to the hotel. It was only 20 minutes away, but the weather made it take about an hour to get there. When we arrived, we were informed that even though we had booked a room that morning, the room had been resold. Every other hotel in that area was booked so we had no place to stay and couldn't drive five hours home in that weather. We spent about an hour in the lobby trying to find another hotel to stay at. Luckily I work at a hotel so my manager was able to find us a room for a decent price, but the place was an extra 40 minutes out of the way normally so we didn't arrive until around 3:30 am. While we were in the lobby trying to find a hotel, another woman walked in who had a reservation and they had resold her room as well. It says that they will hold your room until 7am the next morning, but they will not.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>My friend and I reserved a room the morning of our trip to Texas and were going to check in after the concert we were going to see was over. When we got out of the concert at about 10:40, it was sleeting and icing terribly. We were in a rush to get to the hotel. It was only 20 minutes away, but the weather made it take about an hour to get there. When we arrived, we were informed that even though we had booked a room that morning, the room had been resold. Every other hotel in that area was booked so we had no place to stay and couldn't drive five hours home in that weather. We spent about an hour in the lobby trying to find another hotel to stay at. Luckily I work at a hotel so my manager was able to find us a room for a decent price, but the place was an extra 40 minutes out of the way normally so we didn't arrive until around 3:30 am. While we were in the lobby trying to find a hotel, another woman walked in who had a reservation and they had resold her room as well. It says that they will hold your room until 7am the next morning, but they will not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r255875000-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>255875000</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>Sleep with a window opened nearby for ventilation</t>
+  </si>
+  <si>
+    <t>The room I had on the top floor was nonsmoking and very clean.The next morning I awoke to the smells of cigarette smoke from nearby rooms. Ugh! At least I had a place to put my head and sleep that night</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r247567430-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>247567430</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Good place to spend the night</t>
+  </si>
+  <si>
+    <t>We were in town to visit family and only needed a place to sleep for the night. This was perfect. The staff was very welcoming and friendly. We checked into a nice sized room. The first impression when we opened the door was that it was clean and fresh. There was a fridge and a microwave also.  This is a really good deal for a motel in the Dallas area and I would recommend this motel to anyone. There was also a continental breakfast in the morning but we had other plans. I would spend the night here again.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r192522200-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>192522200</t>
+  </si>
+  <si>
+    <t>01/29/2014</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel many times visiting our son in the Dallas area.  I was appalled when we stayed there recently to find it had changed management and the establishment has deteriorated to the extreme.  Do not book a room in this place.  The new manager, Mr. Patel, is very unpredictable.  His staff is curt and rude.  I am so disappointed in this place as it was for some time clean, friendly, reasonably priced, and safe.  It is no longer any of those things.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r190966105-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>190966105</t>
+  </si>
+  <si>
+    <t>01/15/2014</t>
+  </si>
+  <si>
+    <t>Decent for a short stay</t>
+  </si>
+  <si>
+    <t>Coming in to town for a one night stay I didn't expect much and didn't really care for much. The hotel was decent, didn't really expect more. Had good internet and water pressure. Beds were a little firm but was ok. Coffee was a surprise in the morning as I didn;t expect a breakfast. I wouldn;t mind staying here again if it was a short trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r184888221-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>184888221</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>No complaints....</t>
+  </si>
+  <si>
+    <t>My stay there was just fine. It's a place to sleep and bathe so no complaints here. I always stay here when I go to Texas. The manager is really nice. The price is great. Will stay there again. Thanks.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r117701946-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>117701946</t>
+  </si>
+  <si>
+    <t>09/05/2011</t>
+  </si>
+  <si>
+    <t>dont stay</t>
+  </si>
+  <si>
+    <t>Horrible will not stay again, dirty, nasty, filthy, Vaccum all night had to leave early, will not refund money.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r12371010-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>12371010</t>
+  </si>
+  <si>
+    <t>01/05/2008</t>
+  </si>
+  <si>
+    <t>Not bad.</t>
+  </si>
+  <si>
+    <t>I originally booked this hotel room for two nights. The one thing that was wrong with the room was the fact that there was the crushed, remains of an infamous Texas black cricket in the room. My husband picked up what he could but there was still some left on the carpet. I'm squeamish about bugs so maybe to some this wouldn't have been a big deal. Whatever was left of the bug did not disappear completely until the next day when house keeping vacuumed. I don't know how it was over looked in the first place.
+Other than that the room was cleaned. The staff was friendly and knowledgeable. Front desk clerks were able to direct me to different areas of the city. When I decided to stay a third night, the night clerk told me to just come down later on, or the next morning, and pay for the night in advanced. That was it. No complicated paper work or computer adjustments had to be made. The next morning before check out time I payed and that was that.
+Internet access worked just fine. The room had a fridge and a microwave which was great for saving money on food! The continental breakfast left something to be desired though. The lobby is isn't very big and there is a small counter on which there is a waffle maker. There's also coffee, orange juice and muffins. That's it. I...I originally booked this hotel room for two nights. The one thing that was wrong with the room was the fact that there was the crushed, remains of an infamous Texas black cricket in the room. My husband picked up what he could but there was still some left on the carpet. I'm squeamish about bugs so maybe to some this wouldn't have been a big deal. Whatever was left of the bug did not disappear completely until the next day when house keeping vacuumed. I don't know how it was over looked in the first place.Other than that the room was cleaned. The staff was friendly and knowledgeable. Front desk clerks were able to direct me to different areas of the city. When I decided to stay a third night, the night clerk told me to just come down later on, or the next morning, and pay for the night in advanced. That was it. No complicated paper work or computer adjustments had to be made. The next morning before check out time I payed and that was that.Internet access worked just fine. The room had a fridge and a microwave which was great for saving money on food! The continental breakfast left something to be desired though. The lobby is isn't very big and there is a small counter on which there is a waffle maker. There's also coffee, orange juice and muffins. That's it. I didn't eat so I can't comment on the quality. I do understand that there isn't much room and so they do what they can. If you're adventurous then head over to Addison and try out some of the restaurants there. If you're REALLY adventurous then Ajisen in Richardson is the place for Japanese food. The ramen soups are friendly and the best items on the menus.Overall I recommend this place highly.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>I originally booked this hotel room for two nights. The one thing that was wrong with the room was the fact that there was the crushed, remains of an infamous Texas black cricket in the room. My husband picked up what he could but there was still some left on the carpet. I'm squeamish about bugs so maybe to some this wouldn't have been a big deal. Whatever was left of the bug did not disappear completely until the next day when house keeping vacuumed. I don't know how it was over looked in the first place.
+Other than that the room was cleaned. The staff was friendly and knowledgeable. Front desk clerks were able to direct me to different areas of the city. When I decided to stay a third night, the night clerk told me to just come down later on, or the next morning, and pay for the night in advanced. That was it. No complicated paper work or computer adjustments had to be made. The next morning before check out time I payed and that was that.
+Internet access worked just fine. The room had a fridge and a microwave which was great for saving money on food! The continental breakfast left something to be desired though. The lobby is isn't very big and there is a small counter on which there is a waffle maker. There's also coffee, orange juice and muffins. That's it. I...I originally booked this hotel room for two nights. The one thing that was wrong with the room was the fact that there was the crushed, remains of an infamous Texas black cricket in the room. My husband picked up what he could but there was still some left on the carpet. I'm squeamish about bugs so maybe to some this wouldn't have been a big deal. Whatever was left of the bug did not disappear completely until the next day when house keeping vacuumed. I don't know how it was over looked in the first place.Other than that the room was cleaned. The staff was friendly and knowledgeable. Front desk clerks were able to direct me to different areas of the city. When I decided to stay a third night, the night clerk told me to just come down later on, or the next morning, and pay for the night in advanced. That was it. No complicated paper work or computer adjustments had to be made. The next morning before check out time I payed and that was that.Internet access worked just fine. The room had a fridge and a microwave which was great for saving money on food! The continental breakfast left something to be desired though. The lobby is isn't very big and there is a small counter on which there is a waffle maker. There's also coffee, orange juice and muffins. That's it. I didn't eat so I can't comment on the quality. I do understand that there isn't much room and so they do what they can. If you're adventurous then head over to Addison and try out some of the restaurants there. If you're REALLY adventurous then Ajisen in Richardson is the place for Japanese food. The ramen soups are friendly and the best items on the menus.Overall I recommend this place highly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r5488593-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>5488593</t>
+  </si>
+  <si>
+    <t>07/19/2006</t>
+  </si>
+  <si>
+    <t>Great Place to Stay!</t>
+  </si>
+  <si>
+    <t>I normally stay at a Hampton Inn while traveling but there isn't one located in Carrollton,TX.  I was a little leary of what to expect since the price of the rooms was so reasonable but I was very pleasantly surprised!  I stayed there 3 nights and due to previous reservations had to move to a second room the next day.  The rooms were both very clean &amp; comfortable.  The front desk employees were extremely helpful and very friendly.  It was a highly enjoyable stay and I would definately recommend this hotel to anyone!  The only drawback is it isn't highly visible so you may end up passing it by the first time around!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2006</t>
+  </si>
+  <si>
+    <t>I normally stay at a Hampton Inn while traveling but there isn't one located in Carrollton,TX.  I was a little leary of what to expect since the price of the rooms was so reasonable but I was very pleasantly surprised!  I stayed there 3 nights and due to previous reservations had to move to a second room the next day.  The rooms were both very clean &amp; comfortable.  The front desk employees were extremely helpful and very friendly.  It was a highly enjoyable stay and I would definately recommend this hotel to anyone!  The only drawback is it isn't highly visible so you may end up passing it by the first time around!More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +959,947 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_670.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_670.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>sharongmartin924</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Stive1989</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r497185409-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>rohanpatel1135</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r482229055-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>Spoke with a gentleman whose name I believe to be JD and he claimed to be the night manager. He was doing what is known as his obscure definition of helping check in a guest. I called up to discuss issues with my aunt's reservation I made and he agreed there was an issue. I reserved a double queen bedroom and was given a single king with no notification of change. When asked what he could do to accomodate, the clown said he could not. He could not get over the fact that the mistake was made on their end and they should be held responsible. I asked for a rollaway to be comped in place for the confusion and he refused. 0 out of 10 for this monkey's customer service skills. An infant could run a hotel with better customer service. When you make a mistake that ruins one's hotel stay, it defeats the purpose of offering to provide a reservation there. How do you suggest 3 people sleep on 1 bed? Take a look at the receipt attached below proving my point. In other instances, I know of places where hotels go out of their way to make sure the guest is happy or at least moderately satisfied. This proved to be a failed attempt at simple customer service.More</t>
   </si>
   <si>
+    <t>Josh S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r390208707-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -241,6 +253,9 @@
   </si>
   <si>
     <t>Arrived at night and there was a group of what looked like homeless people gathered outside. It was a cheap hotel so I didn't worry too much about it. The facility was relatively clean looking, but upon entering the room, my two year old found one half of a discarded pill capsule on the floor. The drain in the tub was slow to empty and the A/C unit couldn't be set to HI COOL. My room was on a southern facing wall in July and LO COOL wasn't cutting it.On the plus side, the other guests were nice as was the staff. The breakfast consisted of waffles and muffins with orange juice or milk to drink.I wouldn't recommend for families with small children and I doubt I'll be returning.More</t>
+  </si>
+  <si>
+    <t>Clairannette</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r383002268-Rodeway_Inn-Carrollton_Texas.html</t>
@@ -268,6 +283,9 @@
 The utterly disgusting:  See photos.  When I first arrived, the bathroom counter had hair on it.  Lots of it.  It seemed that someone had cleaned out their hairbrush and left the collection on the countertop.  Also, it looks like maybe someone trimmed their bangs, as well?  Immediately went to tell the really great guy, downstairs, and he offered to change my room - then realized that he couldn't because there weren't any more available.  I should've left right then and there, but I didn't.  Being that it was really late, I told him that I would deal with it and wipe off the counter with a washcloth if he would just have a conversation with the maid.  Stayed two nights.  On the third, after having a fun conversation with the gentleman (LJ, maybe?  His name was initials) I went into my room and - within 30 seconds - saw THREE roaches.  THREE!!!...The positive:  The man working the night shift is the friendliest and best guy, ever!  Having said that...The mildly annoying:  Vending machines don't work.  Barely any lighted parking.  Unsafe night entry area.  Disappointing breakfast.  Loud bathroom fan.  Non-smoking room was stinky had obviously held smoker guests, in the past. (The room number plaque had a smoking sign that was crossed out in paint pen...)  Maid continually left the heater on in JUNE.  Recent paint and drywall work was shoddy and the room still had drywall dust everywhere.The utterly disgusting:  See photos.  When I first arrived, the bathroom counter had hair on it.  Lots of it.  It seemed that someone had cleaned out their hairbrush and left the collection on the countertop.  Also, it looks like maybe someone trimmed their bangs, as well?  Immediately went to tell the really great guy, downstairs, and he offered to change my room - then realized that he couldn't because there weren't any more available.  I should've left right then and there, but I didn't.  Being that it was really late, I told him that I would deal with it and wipe off the counter with a washcloth if he would just have a conversation with the maid.  Stayed two nights.  On the third, after having a fun conversation with the gentleman (LJ, maybe?  His name was initials) I went into my room and - within 30 seconds - saw THREE roaches.  THREE!!! One on the ground by the door, one in the bathroom, and one climbing the wall! I packed, called to reserve a new room, elsewhere, and was checked out in 10 minutes.  Again, the night desk man was sincerely apologetic and sympathetic to the situation, but enough is enough.  I am now safely, cleanly, and securely writing this review from the Courtyard Marriott who has earned my business for life.DO NOT STAY HERE!!!More</t>
   </si>
   <si>
+    <t>Ansari009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r354614894-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -289,6 +307,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Sara W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r258998539-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -310,6 +331,9 @@
     <t>My friend and I reserved a room the morning of our trip to Texas and were going to check in after the concert we were going to see was over. When we got out of the concert at about 10:40, it was sleeting and icing terribly. We were in a rush to get to the hotel. It was only 20 minutes away, but the weather made it take about an hour to get there. When we arrived, we were informed that even though we had booked a room that morning, the room had been resold. Every other hotel in that area was booked so we had no place to stay and couldn't drive five hours home in that weather. We spent about an hour in the lobby trying to find another hotel to stay at. Luckily I work at a hotel so my manager was able to find us a room for a decent price, but the place was an extra 40 minutes out of the way normally so we didn't arrive until around 3:30 am. While we were in the lobby trying to find a hotel, another woman walked in who had a reservation and they had resold her room as well. It says that they will hold your room until 7am the next morning, but they will not.More</t>
   </si>
   <si>
+    <t>kathlyn k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r255875000-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -328,6 +352,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>echolstraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r247567430-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -346,6 +373,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>sherry a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r192522200-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -364,6 +394,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>FootballFloyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r190966105-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -379,6 +412,9 @@
     <t>Coming in to town for a one night stay I didn't expect much and didn't really care for much. The hotel was decent, didn't really expect more. Had good internet and water pressure. Beds were a little firm but was ok. Coffee was a surprise in the morning as I didn;t expect a breakfast. I wouldn;t mind staying here again if it was a short trip.</t>
   </si>
   <si>
+    <t>maverette4131</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r184888221-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -397,6 +433,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>kay56833</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r117701946-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -413,6 +452,9 @@
   </si>
   <si>
     <t>September 2011</t>
+  </si>
+  <si>
+    <t>DurNacc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r12371010-Rodeway_Inn-Carrollton_Texas.html</t>
@@ -438,6 +480,9 @@
     <t>I originally booked this hotel room for two nights. The one thing that was wrong with the room was the fact that there was the crushed, remains of an infamous Texas black cricket in the room. My husband picked up what he could but there was still some left on the carpet. I'm squeamish about bugs so maybe to some this wouldn't have been a big deal. Whatever was left of the bug did not disappear completely until the next day when house keeping vacuumed. I don't know how it was over looked in the first place.
 Other than that the room was cleaned. The staff was friendly and knowledgeable. Front desk clerks were able to direct me to different areas of the city. When I decided to stay a third night, the night clerk told me to just come down later on, or the next morning, and pay for the night in advanced. That was it. No complicated paper work or computer adjustments had to be made. The next morning before check out time I payed and that was that.
 Internet access worked just fine. The room had a fridge and a microwave which was great for saving money on food! The continental breakfast left something to be desired though. The lobby is isn't very big and there is a small counter on which there is a waffle maker. There's also coffee, orange juice and muffins. That's it. I...I originally booked this hotel room for two nights. The one thing that was wrong with the room was the fact that there was the crushed, remains of an infamous Texas black cricket in the room. My husband picked up what he could but there was still some left on the carpet. I'm squeamish about bugs so maybe to some this wouldn't have been a big deal. Whatever was left of the bug did not disappear completely until the next day when house keeping vacuumed. I don't know how it was over looked in the first place.Other than that the room was cleaned. The staff was friendly and knowledgeable. Front desk clerks were able to direct me to different areas of the city. When I decided to stay a third night, the night clerk told me to just come down later on, or the next morning, and pay for the night in advanced. That was it. No complicated paper work or computer adjustments had to be made. The next morning before check out time I payed and that was that.Internet access worked just fine. The room had a fridge and a microwave which was great for saving money on food! The continental breakfast left something to be desired though. The lobby is isn't very big and there is a small counter on which there is a waffle maker. There's also coffee, orange juice and muffins. That's it. I didn't eat so I can't comment on the quality. I do understand that there isn't much room and so they do what they can. If you're adventurous then head over to Addison and try out some of the restaurants there. If you're REALLY adventurous then Ajisen in Richardson is the place for Japanese food. The ramen soups are friendly and the best items on the menus.Overall I recommend this place highly.More</t>
+  </si>
+  <si>
+    <t>SuzanTX</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r5488593-Rodeway_Inn-Carrollton_Texas.html</t>
@@ -963,43 +1008,47 @@
       <c r="A2" t="n">
         <v>53167</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>176220</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1019,50 +1068,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>53167</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>176221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1080,50 +1133,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>53167</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>176222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1143,50 +1200,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>53167</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>21811</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1206,50 +1267,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>53167</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>71408</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1263,50 +1328,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>53167</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>176223</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1326,50 +1395,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>53167</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>20614</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1385,50 +1458,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>53167</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>176224</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1442,50 +1519,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>53167</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>176225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1503,50 +1584,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>53167</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>176226</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1570,50 +1655,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>53167</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>176227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1637,50 +1726,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>53167</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>176228</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1704,50 +1797,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>53167</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>176229</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1763,50 +1860,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>53167</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>176230</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -1830,50 +1931,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>53167</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>176231</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -1897,7 +2002,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_670.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_670.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>sharongmartin924</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r577544460-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>55588</t>
+  </si>
+  <si>
+    <t>534712</t>
+  </si>
+  <si>
+    <t>577544460</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Eh was good price but...</t>
+  </si>
+  <si>
+    <t>The room we had was perfect. Spacious and very comfortable for a family of three. The beds were super comfy and I didn’t want to get up in the morning lol. Great location and great prices. Good breakfast in the morning and the staff is super nice.I have 3 stars because of a couple of things: no trash can in the bathroom, only one trash can period in the room, no chain lock on he door, and no stopped for the bathtub. Also found a very long brown hair on one of the pillows my daughter was using and none of us has long brown hair. I have very short brown hair, hubby has shaved head, my daughter is blonde haired. Made me feel uneasy.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The room we had was perfect. Spacious and very comfortable for a family of three. The beds were super comfy and I didn’t want to get up in the morning lol. Great location and great prices. Good breakfast in the morning and the staff is super nice.I have 3 stars because of a couple of things: no trash can in the bathroom, only one trash can period in the room, no chain lock on he door, and no stopped for the bathtub. Also found a very long brown hair on one of the pillows my daughter was using and none of us has long brown hair. I have very short brown hair, hubby has shaved head, my daughter is blonde haired. Made me feel uneasy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r501567284-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>501567284</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>Great hotel to visit or enjoy for a long stay.....</t>
+  </si>
+  <si>
+    <t>I LOVE the people here. They are always professional. They take care of the customers in everyway. The breakfast is always set up nice and CLEAN. The machines in the Hotel all work and even when they are on the brink, they get them fixed. The rooms are especially clean, even more so because they have them sprayed and cleaned on a continuum; just to make sure they are on top of everything. The beds even get flipped and they are always making upgrades. Don't worry about any hanging out there all in the front, like a club: none of that ever. Also, it's even safe to park in the back. Which is usually dangerous at most hotels...not so, here. Clean spot. Nice locale and SAFE always. The owner and that staff: 2nd to NONE... Classy.Everyday the same thing: Excellence. Trust me, I know.I often stay there for visits and long stays. If you're looking for a great stay, check them out; not to mention, the cost makes sense.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I LOVE the people here. They are always professional. They take care of the customers in everyway. The breakfast is always set up nice and CLEAN. The machines in the Hotel all work and even when they are on the brink, they get them fixed. The rooms are especially clean, even more so because they have them sprayed and cleaned on a continuum; just to make sure they are on top of everything. The beds even get flipped and they are always making upgrades. Don't worry about any hanging out there all in the front, like a club: none of that ever. Also, it's even safe to park in the back. Which is usually dangerous at most hotels...not so, here. Clean spot. Nice locale and SAFE always. The owner and that staff: 2nd to NONE... Classy.Everyday the same thing: Excellence. Trust me, I know.I often stay there for visits and long stays. If you're looking for a great stay, check them out; not to mention, the cost makes sense.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r498341485-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
-    <t>55588</t>
-  </si>
-  <si>
-    <t>534712</t>
-  </si>
-  <si>
     <t>498341485</t>
   </si>
   <si>
@@ -174,15 +219,9 @@
     <t>Stayed at Rodeway Inn in Carrollton. The staff was professional and helpful, room clean &amp; comfortable. The ladies were especially friendly. I enjoyed the breakfast with the hot waffles. would definitely stay again.</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Stive1989</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r497185409-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -204,9 +243,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>rohanpatel1135</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r482229055-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -225,13 +261,49 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Spoke with a gentleman whose name I believe to be JD and he claimed to be the night manager. He was doing what is known as his obscure definition of helping check in a guest. I called up to discuss issues with my aunt's reservation I made and he agreed there was an issue. I reserved a double queen bedroom and was given a single king with no notification of change. When asked what he could do to accomodate, the clown said he could not. He could not get over the fact that the mistake was made on their end and they should be held responsible. I asked for a rollaway to be comped in place for the confusion and he refused. 0 out of 10 for this monkey's customer service skills. An infant could run a hotel with better customer service. When you make a mistake that ruins one's hotel stay, it defeats the purpose of offering to provide a reservation there. How do you suggest 3 people sleep on 1 bed? Take a look at the receipt attached below proving my point. In other instances, I know of places where hotels go out of their way to make sure the guest is happy or at least moderately satisfied. This proved to be a failed attempt at simple customer service.More</t>
   </si>
   <si>
-    <t>Josh S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r443412853-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>443412853</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Horrible experience</t>
+  </si>
+  <si>
+    <t>My wife and I came to stay, had 2 nights reserved. Upon check in the room we got had a lightbulb missing and the ice bucket was disgusting the phone in the room was broken. We went to the front and asked for a lightbulb and bag for the ice bucket and advised the front desk man about the broken phone so he changed us rooms and even upgraded to the Jacuzzi suite, we were grateful and delighted... Then the nightmare began... We went into the room (we wanted a smoking room) no ash tray, so called front desk to ask for one and he said they don't provide them... The iron and ironing board wasn't in the room so I went to the front desk and asked for one because we were going out and needed to iron. He was very rude to me but got the stuff for me. We started up the jacuzzi tub... Glad we were just testing it because some leafs, or lettuce or whatever it was poured into the tub it was disgusting. We let it go since there was a shower and bathtub in the bathroom and went out. We got back (my wife managed to break her ankle while out) at around 7-8 am. She went to lay down. I look next to the jacuzzi tub and there is a huge ball of hair stuck on the wall disgusting! I opened the...My wife and I came to stay, had 2 nights reserved. Upon check in the room we got had a lightbulb missing and the ice bucket was disgusting the phone in the room was broken. We went to the front and asked for a lightbulb and bag for the ice bucket and advised the front desk man about the broken phone so he changed us rooms and even upgraded to the Jacuzzi suite, we were grateful and delighted... Then the nightmare began... We went into the room (we wanted a smoking room) no ash tray, so called front desk to ask for one and he said they don't provide them... The iron and ironing board wasn't in the room so I went to the front desk and asked for one because we were going out and needed to iron. He was very rude to me but got the stuff for me. We started up the jacuzzi tub... Glad we were just testing it because some leafs, or lettuce or whatever it was poured into the tub it was disgusting. We let it go since there was a shower and bathtub in the bathroom and went out. We got back (my wife managed to break her ankle while out) at around 7-8 am. She went to lay down. I look next to the jacuzzi tub and there is a huge ball of hair stuck on the wall disgusting! I opened the refrigerator and grabbed my leftover redbull and what do I see ROACHES crawling!!! I had to run to walgreens to get some medication and stuff for my Wife and she needed toilet paper. When she called the front desk he said she can come get it, she explained to him she had broken her foot and asked if he would bring it to the door at least and he said no. Worst customer service I've EVER encountered!!! We had to get some rest and I couldn't drive any longer so hesitantly we stayed and asked for a late check out which they did give us an hour extra so until 12pm. We get a knock on the door at 10 am asking if we are leaving yet and we explained they gave us the late check-out. We had our bags packed up and were about to head out the door and at 12:02 pm we get another call stating "it's after noon are you leaving yet". Of course we were about to walk out the door. Assisting my wife (no crutches yet so was using the desk chair to roll her body to the car) and the housekeeper ran after us as if we were going to steal the chair... This is the worst, most disgusting hotel I've ever stayed in and unfortunately the staff are even more of a shock than the cockroaches. I have many pictures and a Facebook LIVE video of this disgusting hotel. NOT WORTH IT DON'T STAY HERE!!!! I will be notifying choice about this experience. So disappointed!  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My wife and I came to stay, had 2 nights reserved. Upon check in the room we got had a lightbulb missing and the ice bucket was disgusting the phone in the room was broken. We went to the front and asked for a lightbulb and bag for the ice bucket and advised the front desk man about the broken phone so he changed us rooms and even upgraded to the Jacuzzi suite, we were grateful and delighted... Then the nightmare began... We went into the room (we wanted a smoking room) no ash tray, so called front desk to ask for one and he said they don't provide them... The iron and ironing board wasn't in the room so I went to the front desk and asked for one because we were going out and needed to iron. He was very rude to me but got the stuff for me. We started up the jacuzzi tub... Glad we were just testing it because some leafs, or lettuce or whatever it was poured into the tub it was disgusting. We let it go since there was a shower and bathtub in the bathroom and went out. We got back (my wife managed to break her ankle while out) at around 7-8 am. She went to lay down. I look next to the jacuzzi tub and there is a huge ball of hair stuck on the wall disgusting! I opened the...My wife and I came to stay, had 2 nights reserved. Upon check in the room we got had a lightbulb missing and the ice bucket was disgusting the phone in the room was broken. We went to the front and asked for a lightbulb and bag for the ice bucket and advised the front desk man about the broken phone so he changed us rooms and even upgraded to the Jacuzzi suite, we were grateful and delighted... Then the nightmare began... We went into the room (we wanted a smoking room) no ash tray, so called front desk to ask for one and he said they don't provide them... The iron and ironing board wasn't in the room so I went to the front desk and asked for one because we were going out and needed to iron. He was very rude to me but got the stuff for me. We started up the jacuzzi tub... Glad we were just testing it because some leafs, or lettuce or whatever it was poured into the tub it was disgusting. We let it go since there was a shower and bathtub in the bathroom and went out. We got back (my wife managed to break her ankle while out) at around 7-8 am. She went to lay down. I look next to the jacuzzi tub and there is a huge ball of hair stuck on the wall disgusting! I opened the refrigerator and grabbed my leftover redbull and what do I see ROACHES crawling!!! I had to run to walgreens to get some medication and stuff for my Wife and she needed toilet paper. When she called the front desk he said she can come get it, she explained to him she had broken her foot and asked if he would bring it to the door at least and he said no. Worst customer service I've EVER encountered!!! We had to get some rest and I couldn't drive any longer so hesitantly we stayed and asked for a late check out which they did give us an hour extra so until 12pm. We get a knock on the door at 10 am asking if we are leaving yet and we explained they gave us the late check-out. We had our bags packed up and were about to head out the door and at 12:02 pm we get another call stating "it's after noon are you leaving yet". Of course we were about to walk out the door. Assisting my wife (no crutches yet so was using the desk chair to roll her body to the car) and the housekeeper ran after us as if we were going to steal the chair... This is the worst, most disgusting hotel I've ever stayed in and unfortunately the staff are even more of a shock than the cockroaches. I have many pictures and a Facebook LIVE video of this disgusting hotel. NOT WORTH IT DON'T STAY HERE!!!! I will be notifying choice about this experience. So disappointed!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r416973457-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>416973457</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Had to move</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow is this place the pits. I'm sure they did clean my room after the previous quest. There was toothpaste in the sink. Kleenex on the floor. The carpet hadn't been vacuumed. Mildew on the shower curtain. Old with little upkeep. I moved after one night. The place was fairly inexpensive, but you get less than what you pay for. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r390208707-Rodeway_Inn-Carrollton_Texas.html</t>
@@ -253,9 +325,6 @@
   </si>
   <si>
     <t>Arrived at night and there was a group of what looked like homeless people gathered outside. It was a cheap hotel so I didn't worry too much about it. The facility was relatively clean looking, but upon entering the room, my two year old found one half of a discarded pill capsule on the floor. The drain in the tub was slow to empty and the A/C unit couldn't be set to HI COOL. My room was on a southern facing wall in July and LO COOL wasn't cutting it.On the plus side, the other guests were nice as was the staff. The breakfast consisted of waffles and muffins with orange juice or milk to drink.I wouldn't recommend for families with small children and I doubt I'll be returning.More</t>
-  </si>
-  <si>
-    <t>Clairannette</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r383002268-Rodeway_Inn-Carrollton_Texas.html</t>
@@ -283,9 +352,6 @@
 The utterly disgusting:  See photos.  When I first arrived, the bathroom counter had hair on it.  Lots of it.  It seemed that someone had cleaned out their hairbrush and left the collection on the countertop.  Also, it looks like maybe someone trimmed their bangs, as well?  Immediately went to tell the really great guy, downstairs, and he offered to change my room - then realized that he couldn't because there weren't any more available.  I should've left right then and there, but I didn't.  Being that it was really late, I told him that I would deal with it and wipe off the counter with a washcloth if he would just have a conversation with the maid.  Stayed two nights.  On the third, after having a fun conversation with the gentleman (LJ, maybe?  His name was initials) I went into my room and - within 30 seconds - saw THREE roaches.  THREE!!!...The positive:  The man working the night shift is the friendliest and best guy, ever!  Having said that...The mildly annoying:  Vending machines don't work.  Barely any lighted parking.  Unsafe night entry area.  Disappointing breakfast.  Loud bathroom fan.  Non-smoking room was stinky had obviously held smoker guests, in the past. (The room number plaque had a smoking sign that was crossed out in paint pen...)  Maid continually left the heater on in JUNE.  Recent paint and drywall work was shoddy and the room still had drywall dust everywhere.The utterly disgusting:  See photos.  When I first arrived, the bathroom counter had hair on it.  Lots of it.  It seemed that someone had cleaned out their hairbrush and left the collection on the countertop.  Also, it looks like maybe someone trimmed their bangs, as well?  Immediately went to tell the really great guy, downstairs, and he offered to change my room - then realized that he couldn't because there weren't any more available.  I should've left right then and there, but I didn't.  Being that it was really late, I told him that I would deal with it and wipe off the counter with a washcloth if he would just have a conversation with the maid.  Stayed two nights.  On the third, after having a fun conversation with the gentleman (LJ, maybe?  His name was initials) I went into my room and - within 30 seconds - saw THREE roaches.  THREE!!! One on the ground by the door, one in the bathroom, and one climbing the wall! I packed, called to reserve a new room, elsewhere, and was checked out in 10 minutes.  Again, the night desk man was sincerely apologetic and sympathetic to the situation, but enough is enough.  I am now safely, cleanly, and securely writing this review from the Courtyard Marriott who has earned my business for life.DO NOT STAY HERE!!!More</t>
   </si>
   <si>
-    <t>Ansari009</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r354614894-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -304,10 +370,40 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Sara W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r313892900-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>313892900</t>
+  </si>
+  <si>
+    <t>09/26/2015</t>
+  </si>
+  <si>
+    <t>Nothing good to say</t>
+  </si>
+  <si>
+    <t>Got to check in early to a filthy room. Bed linens were NOT changed after previous guests. Requested fresh lines and changed them myself,(except blankets which they were out of?), towels had a funky oily smell, carpets had questionable stains and staff seemed irritated over any and all requests, even wifi password that was supposed to be included in price of room. Would not ever stay at this hotel again, cheap price or not.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r298748616-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>298748616</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Why such a cheap mattress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed in a suite. Small TV - motel 6 size The AC is either on or it is not and you either freeze to death or fry. The covers for the bed are very thin and for me the mattress was very uncomfortable. Hard as a brick and even close to plush. Probably not on my radar ever again Continental breakfast means all carbs. Muffins or waffles juice or milk. </t>
+  </si>
+  <si>
+    <t>August 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r258998539-Rodeway_Inn-Carrollton_Texas.html</t>
@@ -331,9 +427,6 @@
     <t>My friend and I reserved a room the morning of our trip to Texas and were going to check in after the concert we were going to see was over. When we got out of the concert at about 10:40, it was sleeting and icing terribly. We were in a rush to get to the hotel. It was only 20 minutes away, but the weather made it take about an hour to get there. When we arrived, we were informed that even though we had booked a room that morning, the room had been resold. Every other hotel in that area was booked so we had no place to stay and couldn't drive five hours home in that weather. We spent about an hour in the lobby trying to find another hotel to stay at. Luckily I work at a hotel so my manager was able to find us a room for a decent price, but the place was an extra 40 minutes out of the way normally so we didn't arrive until around 3:30 am. While we were in the lobby trying to find a hotel, another woman walked in who had a reservation and they had resold her room as well. It says that they will hold your room until 7am the next morning, but they will not.More</t>
   </si>
   <si>
-    <t>kathlyn k</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r255875000-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -352,9 +445,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>echolstraveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r247567430-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -373,7 +463,63 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>sherry a</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r223189251-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>223189251</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place for the buck! </t>
+  </si>
+  <si>
+    <t>Not a 5 star hotel but all great amenities.  Hair dryer, microwave,  coffee maker,  and refrigerator in the room!  Comfortable bed and great pillows!  Despite being right next to the highway it was very quiet.  Building was old but clean. Staff was amazingly friendly and helpful.  Good deal for the $$.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r213143516-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>213143516</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Tiny Parking - Tiny Bed - Tiny Pillows - Tiny Breakfast</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Choice Hotel properties, so I provide these comments only because this hotel paled in comparison to even the cheapest of other Choice Hotels my wife and I have recently frequented.
+.
+When we arrived, I tried to find a parking spot under a street light, but realized there was only one working light in the whole tiny parking lot.  The rest of the parking area was illuminated by small, dim light fixtures mounted on the hotel exterior.  So I had to unload the car in the dark.
+.
+We reserved a room with a King-size bed.  When we arrived, however, we were given a handicapped room with a much smaller double (?) bed.  Also, we were provided with only two very tiny pillows.  It's a good thing I have a tiny brain that fits nicely on a tiny pillow.  :o)
+.
+There was also only one working light in the room as the lights in the other two fixtures were burned-out.
+.
+The handicapped bathroom didn't have any shelves, so we had to set everything next to the bed and carry stuff back and forth into the bathroom as needed.
+.
+The handicapped shower was fitted with a permanent chair, so there was only room for one person to stand in the shower - and that was directly under the shower head.  The shower worked great, though, and had plenty of pressure and stayed...I stay at a lot of Choice Hotel properties, so I provide these comments only because this hotel paled in comparison to even the cheapest of other Choice Hotels my wife and I have recently frequented..When we arrived, I tried to find a parking spot under a street light, but realized there was only one working light in the whole tiny parking lot.  The rest of the parking area was illuminated by small, dim light fixtures mounted on the hotel exterior.  So I had to unload the car in the dark..We reserved a room with a King-size bed.  When we arrived, however, we were given a handicapped room with a much smaller double (?) bed.  Also, we were provided with only two very tiny pillows.  It's a good thing I have a tiny brain that fits nicely on a tiny pillow.  :o).There was also only one working light in the room as the lights in the other two fixtures were burned-out..The handicapped bathroom didn't have any shelves, so we had to set everything next to the bed and carry stuff back and forth into the bathroom as needed..The handicapped shower was fitted with a permanent chair, so there was only room for one person to stand in the shower - and that was directly under the shower head.  The shower worked great, though, and had plenty of pressure and stayed on temperature...  Good!.When we checked-out at 8:00am, we were surprised there was no hot coffee available (the pot had already been turned off) even though breakfast is supposed to be available until 9:00am..We were also very disappointed that the only food available was waffles and a few banana nut muffins.  No hot or cold cereals. No bread for making toast. No bagels. No meats. No hash browns. No eggs..We've stayed at many other low-end hotels in the "Choice Hotels" family and they always offered all of the above items.BTW...  the desk personnel were very nice and friendly, so we have absolutely no problem with them.  It's the owner of the hotel who has chosen to cut-back on the breakfast items that concerns us..For the same price, there are other hotels within the general area that offer more.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Choice Hotel properties, so I provide these comments only because this hotel paled in comparison to even the cheapest of other Choice Hotels my wife and I have recently frequented.
+.
+When we arrived, I tried to find a parking spot under a street light, but realized there was only one working light in the whole tiny parking lot.  The rest of the parking area was illuminated by small, dim light fixtures mounted on the hotel exterior.  So I had to unload the car in the dark.
+.
+We reserved a room with a King-size bed.  When we arrived, however, we were given a handicapped room with a much smaller double (?) bed.  Also, we were provided with only two very tiny pillows.  It's a good thing I have a tiny brain that fits nicely on a tiny pillow.  :o)
+.
+There was also only one working light in the room as the lights in the other two fixtures were burned-out.
+.
+The handicapped bathroom didn't have any shelves, so we had to set everything next to the bed and carry stuff back and forth into the bathroom as needed.
+.
+The handicapped shower was fitted with a permanent chair, so there was only room for one person to stand in the shower - and that was directly under the shower head.  The shower worked great, though, and had plenty of pressure and stayed...I stay at a lot of Choice Hotel properties, so I provide these comments only because this hotel paled in comparison to even the cheapest of other Choice Hotels my wife and I have recently frequented..When we arrived, I tried to find a parking spot under a street light, but realized there was only one working light in the whole tiny parking lot.  The rest of the parking area was illuminated by small, dim light fixtures mounted on the hotel exterior.  So I had to unload the car in the dark..We reserved a room with a King-size bed.  When we arrived, however, we were given a handicapped room with a much smaller double (?) bed.  Also, we were provided with only two very tiny pillows.  It's a good thing I have a tiny brain that fits nicely on a tiny pillow.  :o).There was also only one working light in the room as the lights in the other two fixtures were burned-out..The handicapped bathroom didn't have any shelves, so we had to set everything next to the bed and carry stuff back and forth into the bathroom as needed..The handicapped shower was fitted with a permanent chair, so there was only room for one person to stand in the shower - and that was directly under the shower head.  The shower worked great, though, and had plenty of pressure and stayed on temperature...  Good!.When we checked-out at 8:00am, we were surprised there was no hot coffee available (the pot had already been turned off) even though breakfast is supposed to be available until 9:00am..We were also very disappointed that the only food available was waffles and a few banana nut muffins.  No hot or cold cereals. No bread for making toast. No bagels. No meats. No hash browns. No eggs..We've stayed at many other low-end hotels in the "Choice Hotels" family and they always offered all of the above items.BTW...  the desk personnel were very nice and friendly, so we have absolutely no problem with them.  It's the owner of the hotel who has chosen to cut-back on the breakfast items that concerns us..For the same price, there are other hotels within the general area that offer more.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r192522200-Rodeway_Inn-Carrollton_Texas.html</t>
@@ -394,9 +540,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>FootballFloyd</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r190966105-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -412,9 +555,6 @@
     <t>Coming in to town for a one night stay I didn't expect much and didn't really care for much. The hotel was decent, didn't really expect more. Had good internet and water pressure. Beds were a little firm but was ok. Coffee was a surprise in the morning as I didn;t expect a breakfast. I wouldn;t mind staying here again if it was a short trip.</t>
   </si>
   <si>
-    <t>maverette4131</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r184888221-Rodeway_Inn-Carrollton_Texas.html</t>
   </si>
   <si>
@@ -433,7 +573,37 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>kay56833</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r163938565-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>163938565</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>Funky doesn't begin to describe!!!</t>
+  </si>
+  <si>
+    <t>Okay...first off....the gentleman at the front desk was more than nice and accommodating. That's the only good thing about this place. The worst thing....it's beyond funky!!! I don't know what their housekeeping staff is doing on a daily basis but it surely isn't making sure the rooms don't stink. Good grief. I should say we have two small dogs and therefore we had to get a "pet room". Just because the room is designated for people with pets doesn't mean it should smell like a dog toilet. Someone's pet or pets obviously used this room as their personal potty. However if you're going to charge a pet fee per pet, per night....that pet fee sould be utilized towards cleaning the room. I didn't ask to switch to a new room because we've been on the road for a long time and is beyond exhausted...I am however wide awake in this funky room while my dear husband sleeps because the smell is on the side of the room I'm "sleeping" on. Also...I SHOULDN'T have to ask to switch to a new room. A room should just be ready. Period. It's beyond overwhelming. Upon entering the room....my animals made a beeline for THE spot and started sniffing...I can even look down and tell where it is..and the carpet itself feels different. I do not want to take my shoes off because I feel I will end up with pet urine on my...Okay...first off....the gentleman at the front desk was more than nice and accommodating. That's the only good thing about this place. The worst thing....it's beyond funky!!! I don't know what their housekeeping staff is doing on a daily basis but it surely isn't making sure the rooms don't stink. Good grief. I should say we have two small dogs and therefore we had to get a "pet room". Just because the room is designated for people with pets doesn't mean it should smell like a dog toilet. Someone's pet or pets obviously used this room as their personal potty. However if you're going to charge a pet fee per pet, per night....that pet fee sould be utilized towards cleaning the room. I didn't ask to switch to a new room because we've been on the road for a long time and is beyond exhausted...I am however wide awake in this funky room while my dear husband sleeps because the smell is on the side of the room I'm "sleeping" on. Also...I SHOULDN'T have to ask to switch to a new room. A room should just be ready. Period. It's beyond overwhelming. Upon entering the room....my animals made a beeline for THE spot and started sniffing...I can even look down and tell where it is..and the carpet itself feels different. I do not want to take my shoes off because I feel I will end up with pet urine on my feet. This room should NOT be rented out until they can properly clean the carpet or replace it. The housekeeping staff should have a regular daily regime when it comes to pets staying here. It should include some steam cleaning, anti microbial and anti bacterial cleaning agents. You don't wait until you think you smell something...that's too late. Also we requested a ground room floor and the only one left that allowed pets was a wheel chair accessable room. I think the room is more than adequate to accommodate a wheel chair. However....does the hotel think people in wheelchairs do NOT need counter space?? There's a toilet, a sink, and a shower/tub combo. There's no reason why they couldn't have a counter top in the bathroom. It has more than enough space.Did I mention the room stinks??? Hopefully I can fall asleep through the stench. MoreShow less</t>
+  </si>
+  <si>
+    <t>Okay...first off....the gentleman at the front desk was more than nice and accommodating. That's the only good thing about this place. The worst thing....it's beyond funky!!! I don't know what their housekeeping staff is doing on a daily basis but it surely isn't making sure the rooms don't stink. Good grief. I should say we have two small dogs and therefore we had to get a "pet room". Just because the room is designated for people with pets doesn't mean it should smell like a dog toilet. Someone's pet or pets obviously used this room as their personal potty. However if you're going to charge a pet fee per pet, per night....that pet fee sould be utilized towards cleaning the room. I didn't ask to switch to a new room because we've been on the road for a long time and is beyond exhausted...I am however wide awake in this funky room while my dear husband sleeps because the smell is on the side of the room I'm "sleeping" on. Also...I SHOULDN'T have to ask to switch to a new room. A room should just be ready. Period. It's beyond overwhelming. Upon entering the room....my animals made a beeline for THE spot and started sniffing...I can even look down and tell where it is..and the carpet itself feels different. I do not want to take my shoes off because I feel I will end up with pet urine on my...Okay...first off....the gentleman at the front desk was more than nice and accommodating. That's the only good thing about this place. The worst thing....it's beyond funky!!! I don't know what their housekeeping staff is doing on a daily basis but it surely isn't making sure the rooms don't stink. Good grief. I should say we have two small dogs and therefore we had to get a "pet room". Just because the room is designated for people with pets doesn't mean it should smell like a dog toilet. Someone's pet or pets obviously used this room as their personal potty. However if you're going to charge a pet fee per pet, per night....that pet fee sould be utilized towards cleaning the room. I didn't ask to switch to a new room because we've been on the road for a long time and is beyond exhausted...I am however wide awake in this funky room while my dear husband sleeps because the smell is on the side of the room I'm "sleeping" on. Also...I SHOULDN'T have to ask to switch to a new room. A room should just be ready. Period. It's beyond overwhelming. Upon entering the room....my animals made a beeline for THE spot and started sniffing...I can even look down and tell where it is..and the carpet itself feels different. I do not want to take my shoes off because I feel I will end up with pet urine on my feet. This room should NOT be rented out until they can properly clean the carpet or replace it. The housekeeping staff should have a regular daily regime when it comes to pets staying here. It should include some steam cleaning, anti microbial and anti bacterial cleaning agents. You don't wait until you think you smell something...that's too late. Also we requested a ground room floor and the only one left that allowed pets was a wheel chair accessable room. I think the room is more than adequate to accommodate a wheel chair. However....does the hotel think people in wheelchairs do NOT need counter space?? There's a toilet, a sink, and a shower/tub combo. There's no reason why they couldn't have a counter top in the bathroom. It has more than enough space.Did I mention the room stinks??? Hopefully I can fall asleep through the stench. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r159935964-Rodeway_Inn-Carrollton_Texas.html</t>
+  </si>
+  <si>
+    <t>159935964</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Gem outside of Dallas</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because we have friends in Coppell and this was not only closest, but cheapest. I wasn't sure what to expect as it had a motel like atmosphere, but I was pleasantly surprised. It was clean, quiet and quaint. It definitely wasn't a Ritz Carlton, but it was fine. The staff was nice and the room was clean. Granted we didn't spend much time in the room. The pool looked dirty, but I think it was off season! It was a decent price too!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r117701946-Rodeway_Inn-Carrollton_Texas.html</t>
@@ -452,9 +622,6 @@
   </si>
   <si>
     <t>September 2011</t>
-  </si>
-  <si>
-    <t>DurNacc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r12371010-Rodeway_Inn-Carrollton_Texas.html</t>
@@ -480,9 +647,6 @@
     <t>I originally booked this hotel room for two nights. The one thing that was wrong with the room was the fact that there was the crushed, remains of an infamous Texas black cricket in the room. My husband picked up what he could but there was still some left on the carpet. I'm squeamish about bugs so maybe to some this wouldn't have been a big deal. Whatever was left of the bug did not disappear completely until the next day when house keeping vacuumed. I don't know how it was over looked in the first place.
 Other than that the room was cleaned. The staff was friendly and knowledgeable. Front desk clerks were able to direct me to different areas of the city. When I decided to stay a third night, the night clerk told me to just come down later on, or the next morning, and pay for the night in advanced. That was it. No complicated paper work or computer adjustments had to be made. The next morning before check out time I payed and that was that.
 Internet access worked just fine. The room had a fridge and a microwave which was great for saving money on food! The continental breakfast left something to be desired though. The lobby is isn't very big and there is a small counter on which there is a waffle maker. There's also coffee, orange juice and muffins. That's it. I...I originally booked this hotel room for two nights. The one thing that was wrong with the room was the fact that there was the crushed, remains of an infamous Texas black cricket in the room. My husband picked up what he could but there was still some left on the carpet. I'm squeamish about bugs so maybe to some this wouldn't have been a big deal. Whatever was left of the bug did not disappear completely until the next day when house keeping vacuumed. I don't know how it was over looked in the first place.Other than that the room was cleaned. The staff was friendly and knowledgeable. Front desk clerks were able to direct me to different areas of the city. When I decided to stay a third night, the night clerk told me to just come down later on, or the next morning, and pay for the night in advanced. That was it. No complicated paper work or computer adjustments had to be made. The next morning before check out time I payed and that was that.Internet access worked just fine. The room had a fridge and a microwave which was great for saving money on food! The continental breakfast left something to be desired though. The lobby is isn't very big and there is a small counter on which there is a waffle maker. There's also coffee, orange juice and muffins. That's it. I didn't eat so I can't comment on the quality. I do understand that there isn't much room and so they do what they can. If you're adventurous then head over to Addison and try out some of the restaurants there. If you're REALLY adventurous then Ajisen in Richardson is the place for Japanese food. The ramen soups are friendly and the best items on the menus.Overall I recommend this place highly.More</t>
-  </si>
-  <si>
-    <t>SuzanTX</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55588-d534712-r5488593-Rodeway_Inn-Carrollton_Texas.html</t>
@@ -1008,120 +1172,106 @@
       <c r="A2" t="n">
         <v>53167</v>
       </c>
-      <c r="B2" t="n">
-        <v>176220</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>53167</v>
       </c>
-      <c r="B3" t="n">
-        <v>176221</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
         <v>5</v>
       </c>
-      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1133,66 +1283,62 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>53167</v>
       </c>
-      <c r="B4" t="n">
-        <v>176222</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="s"/>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1200,66 +1346,60 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>53167</v>
       </c>
-      <c r="B5" t="n">
-        <v>21811</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>69</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1267,387 +1407,359 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>53167</v>
       </c>
-      <c r="B6" t="n">
-        <v>71408</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>53167</v>
       </c>
-      <c r="B7" t="n">
-        <v>176223</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>53167</v>
       </c>
-      <c r="B8" t="n">
-        <v>20614</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>53167</v>
       </c>
-      <c r="B9" t="n">
-        <v>176224</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>53167</v>
       </c>
-      <c r="B10" t="n">
-        <v>176225</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>53167</v>
       </c>
-      <c r="B11" t="n">
-        <v>176226</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1655,70 +1767,60 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>53167</v>
       </c>
-      <c r="B12" t="n">
-        <v>176227</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1726,125 +1828,107 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>53167</v>
       </c>
-      <c r="B13" t="n">
-        <v>176228</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>53167</v>
       </c>
-      <c r="B14" t="n">
-        <v>176229</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1860,135 +1944,111 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>53167</v>
       </c>
-      <c r="B15" t="n">
-        <v>176230</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>53167</v>
       </c>
-      <c r="B16" t="n">
-        <v>176231</v>
-      </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
         <v>5</v>
       </c>
@@ -2002,7 +2062,651 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>193</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53167</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
